--- a/Proxies Information.xlsx
+++ b/Proxies Information.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Username</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Adian</t>
   </si>
   <si>
-    <t>firstrobot0504@outlook.com</t>
+    <t>452594637@qq.com</t>
   </si>
   <si>
     <t>xicutagt</t>
@@ -71,6 +71,81 @@
   </si>
   <si>
     <t>GreenP1656763029</t>
+  </si>
+  <si>
+    <t>inyjstqq</t>
+  </si>
+  <si>
+    <t>GreenP1656767108</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>caesarcary@gmail.com</t>
+  </si>
+  <si>
+    <t>ttdnqyjk</t>
+  </si>
+  <si>
+    <t>GreenP1657552631</t>
+  </si>
+  <si>
+    <t>11th December 2022</t>
+  </si>
+  <si>
+    <t>uuxrhkyn</t>
+  </si>
+  <si>
+    <t>GreenP1657693860</t>
+  </si>
+  <si>
+    <t>13th December 2022</t>
+  </si>
+  <si>
+    <t>xgjpxmvq</t>
+  </si>
+  <si>
+    <t>GreenP1656588481</t>
+  </si>
+  <si>
+    <t>30th November 2022</t>
+  </si>
+  <si>
+    <t>nhkzewfv</t>
+  </si>
+  <si>
+    <t>GreenP1656341428</t>
+  </si>
+  <si>
+    <t>27th November 2022</t>
+  </si>
+  <si>
+    <t>skzjypqx</t>
+  </si>
+  <si>
+    <t>GreenP1656087746</t>
+  </si>
+  <si>
+    <t>24th November 2022</t>
+  </si>
+  <si>
+    <t>jbuvfayt</t>
+  </si>
+  <si>
+    <t>GreenP1657815118</t>
+  </si>
+  <si>
+    <t>14th November 2022</t>
+  </si>
+  <si>
+    <t>ykixavxk</t>
+  </si>
+  <si>
+    <t>GreenP1659597243</t>
+  </si>
+  <si>
+    <t>4th December 2022</t>
   </si>
 </sst>
 </file>
@@ -78,12 +153,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -115,6 +183,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,11 +206,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,26 +228,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,7 +252,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,29 +267,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,45 +313,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,25 +328,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,19 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,133 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,17 +531,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,13 +581,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +599,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,160 +619,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -707,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,16 +1097,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.3333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.1111111111111" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.5555555555556" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.1111111111111" style="2" customWidth="1"/>
@@ -1046,19 +1114,19 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.6" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1147,7 +1215,153 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" display="caesarcary@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId1" display="caesarcary@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId1" display="caesarcary@gmail.com"/>
+    <hyperlink ref="E10" r:id="rId1" display="caesarcary@gmail.com"/>
+    <hyperlink ref="E11" r:id="rId1" display="caesarcary@gmail.com"/>
+    <hyperlink ref="E12" r:id="rId1" display="caesarcary@gmail.com"/>
+    <hyperlink ref="E13" r:id="rId1" display="caesarcary@gmail.com"/>
+    <hyperlink ref="E14" r:id="rId1" display="caesarcary@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Proxies Information.xlsx
+++ b/Proxies Information.xlsx
@@ -136,7 +136,7 @@
     <t>GreenP1657815118</t>
   </si>
   <si>
-    <t>14th November 2022</t>
+    <t>14th December 2022</t>
   </si>
   <si>
     <t>ykixavxk</t>
@@ -154,9 +154,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -175,6 +175,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -183,9 +237,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,43 +276,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,62 +289,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,14 +314,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +519,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,20 +563,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,21 +581,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,30 +603,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,130 +640,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/Proxies Information.xlsx
+++ b/Proxies Information.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Username</t>
   </si>
@@ -37,7 +37,7 @@
     <t>GreenP1656677746</t>
   </si>
   <si>
-    <t>1st December 2022</t>
+    <t>1st January 2023</t>
   </si>
   <si>
     <t>Adian</t>
@@ -52,7 +52,7 @@
     <t>GreenP1656751995</t>
   </si>
   <si>
-    <t>2nd December 2022</t>
+    <t>2nd January 2023</t>
   </si>
   <si>
     <t>shaiqsdr</t>
@@ -73,6 +73,15 @@
     <t>GreenP1656763029</t>
   </si>
   <si>
+    <t>fvvamkuz</t>
+  </si>
+  <si>
+    <t>GreenP1657695064</t>
+  </si>
+  <si>
+    <t>13th December 2022</t>
+  </si>
+  <si>
     <t>inyjstqq</t>
   </si>
   <si>
@@ -100,16 +109,13 @@
     <t>GreenP1657693860</t>
   </si>
   <si>
-    <t>13th December 2022</t>
-  </si>
-  <si>
     <t>xgjpxmvq</t>
   </si>
   <si>
     <t>GreenP1656588481</t>
   </si>
   <si>
-    <t>30th November 2022</t>
+    <t>30th December 2022</t>
   </si>
   <si>
     <t>nhkzewfv</t>
@@ -118,7 +124,7 @@
     <t>GreenP1656341428</t>
   </si>
   <si>
-    <t>27th November 2022</t>
+    <t>27th December 2022</t>
   </si>
   <si>
     <t>skzjypqx</t>
@@ -127,7 +133,7 @@
     <t>GreenP1656087746</t>
   </si>
   <si>
-    <t>24th November 2022</t>
+    <t>23rd December 2022</t>
   </si>
   <si>
     <t>jbuvfayt</t>
@@ -137,15 +143,6 @@
   </si>
   <si>
     <t>14th December 2022</t>
-  </si>
-  <si>
-    <t>ykixavxk</t>
-  </si>
-  <si>
-    <t>GreenP1659597243</t>
-  </si>
-  <si>
-    <t>4th December 2022</t>
   </si>
 </sst>
 </file>
@@ -155,8 +152,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -175,9 +172,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,42 +194,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,8 +217,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,8 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,30 +265,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,16 +309,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,19 +325,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,121 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,37 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +516,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,6 +543,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -547,39 +568,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -619,10 +607,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,130 +637,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1097,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1223,47 +1220,47 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1274,86 +1271,85 @@
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="caesarcary@gmail.com"/>
     <hyperlink ref="E8" r:id="rId1" display="caesarcary@gmail.com"/>
     <hyperlink ref="E9" r:id="rId1" display="caesarcary@gmail.com"/>
     <hyperlink ref="E10" r:id="rId1" display="caesarcary@gmail.com"/>

--- a/Proxies Information.xlsx
+++ b/Proxies Information.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Username</t>
   </si>
@@ -143,6 +143,21 @@
   </si>
   <si>
     <t>14th December 2022</t>
+  </si>
+  <si>
+    <t>ymfzcbaq</t>
+  </si>
+  <si>
+    <t>GreenP1656089285</t>
+  </si>
+  <si>
+    <t>24th December 2022</t>
+  </si>
+  <si>
+    <t>Rinz</t>
+  </si>
+  <si>
+    <t>rinzi27@live.com</t>
   </si>
 </sst>
 </file>
@@ -150,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,8 +187,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,21 +227,37 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +271,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -217,32 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,67 +311,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,13 +340,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,157 +484,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,8 +536,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -543,6 +560,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,21 +588,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -591,43 +611,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,130 +652,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1348,6 +1363,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" display="caesarcary@gmail.com"/>
@@ -1357,6 +1389,7 @@
     <hyperlink ref="E12" r:id="rId1" display="caesarcary@gmail.com"/>
     <hyperlink ref="E13" r:id="rId1" display="caesarcary@gmail.com"/>
     <hyperlink ref="E14" r:id="rId1" display="caesarcary@gmail.com"/>
+    <hyperlink ref="E15" r:id="rId2" display="rinzi27@live.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
